--- a/outputs-card-20-families-6-games.xlsx
+++ b/outputs-card-20-families-6-games.xlsx
@@ -3201,22 +3201,22 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.000000000000004</v>
+        <v>6</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4.000000000000085</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.000000000000155</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.000000000000009</v>
+        <v>6</v>
       </c>
       <c r="AM3" t="n">
-        <v>3.000000000000071</v>
+        <v>6</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.000000000000151</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3316,22 +3316,22 @@
         <v>14</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.000000000000014</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15.00000000000018</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>6.000000000000318</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.000000000000009</v>
+        <v>18</v>
       </c>
       <c r="AM4" t="n">
-        <v>11.00000000000015</v>
+        <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.000000000000302</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3546,22 +3546,22 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -3661,19 +3661,19 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -3776,19 +3776,19 @@
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>2</v>
       </c>
       <c r="AK9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10" t="n">
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -3993,7 +3993,7 @@
         <v>15</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -4043,7 +4043,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4068,7 +4068,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -4150,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.000000000000155</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -4175,7 +4175,7 @@
         <v>12</v>
       </c>
       <c r="J24" t="n">
-        <v>5.00000000000016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4307,7 +4307,7 @@
         <v>17</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0000000000003</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -4332,7 +4332,7 @@
         <v>35</v>
       </c>
       <c r="J33" t="n">
-        <v>19.00000000000034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4793,7 +4793,7 @@
         <v>11</v>
       </c>
       <c r="J19" t="n">
-        <v>2.000000000000011</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -4843,7 +4843,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>4.000000000000225</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -4868,7 +4868,7 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>1.000000000000151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.000000000000088</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4918,7 +4918,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -4950,7 +4950,7 @@
         <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>6.000000000000017</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.000000000000001</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -5000,7 +5000,7 @@
         <v>39</v>
       </c>
       <c r="J30" t="n">
-        <v>12.00000000000046</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -5025,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="J31" t="n">
-        <v>2.000000000000302</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.0000000000002</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -5075,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.000000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.000000000000151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5723,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>1.000000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.000000000000079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -5883,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1.000000000000009</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -5923,7 +5923,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -6409,7 +6409,7 @@
         <v>30.1</v>
       </c>
       <c r="G2" t="n">
-        <v>24.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="4">
@@ -6436,7 +6436,7 @@
         <v>1.42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.45</v>
+        <v>2.33</v>
       </c>
     </row>
   </sheetData>
